--- a/date/fred_china_cpi.xlsx
+++ b/date/fred_china_cpi.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B387"/>
+  <dimension ref="A1:C375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,3093 +450,4124 @@
           <t>CPI</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CPI同比</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>33970</v>
+        <v>34335</v>
       </c>
       <c r="B2" t="n">
-        <v>41.34689</v>
+        <v>50.07108</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21.09999083365157</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>34001</v>
+        <v>34366</v>
       </c>
       <c r="B3" t="n">
-        <v>41.5811</v>
+        <v>51.22791</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23.19998749431833</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>34029</v>
+        <v>34394</v>
       </c>
       <c r="B4" t="n">
-        <v>42.35071</v>
+        <v>51.83727</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22.40000226678607</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>34060</v>
+        <v>34425</v>
       </c>
       <c r="B5" t="n">
-        <v>43.57439</v>
+        <v>53.03003</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21.69999396434463</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>34090</v>
+        <v>34455</v>
       </c>
       <c r="B6" t="n">
-        <v>44.22674</v>
+        <v>53.64703000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21.29998729275549</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>34121</v>
+        <v>34486</v>
       </c>
       <c r="B7" t="n">
-        <v>44.16555</v>
+        <v>54.14696</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22.59999026390478</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>34151</v>
+        <v>34516</v>
       </c>
       <c r="B8" t="n">
-        <v>43.85954</v>
+        <v>54.38583000000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>24.00000091200227</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>34182</v>
+        <v>34547</v>
       </c>
       <c r="B9" t="n">
-        <v>44.7995</v>
+        <v>56.35777</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.79999776783224</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>34213</v>
+        <v>34578</v>
       </c>
       <c r="B10" t="n">
-        <v>45.97549</v>
+        <v>58.52681</v>
+      </c>
+      <c r="C10" t="n">
+        <v>27.30002442605832</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>34243</v>
+        <v>34608</v>
       </c>
       <c r="B11" t="n">
-        <v>46.30959</v>
+        <v>59.13734</v>
+      </c>
+      <c r="C11" t="n">
+        <v>27.69998611518694</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>34274</v>
+        <v>34639</v>
       </c>
       <c r="B12" t="n">
-        <v>46.71099</v>
+        <v>59.55651999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>27.50001659138457</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>34304</v>
+        <v>34669</v>
       </c>
       <c r="B13" t="n">
-        <v>48.12294</v>
+        <v>60.39429000000001</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25.50000062340332</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>34335</v>
+        <v>34700</v>
       </c>
       <c r="B14" t="n">
-        <v>50.07108</v>
+        <v>62.13821</v>
+      </c>
+      <c r="C14" t="n">
+        <v>24.09999944079497</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>34366</v>
+        <v>34731</v>
       </c>
       <c r="B15" t="n">
-        <v>51.22791</v>
+        <v>62.70296</v>
+      </c>
+      <c r="C15" t="n">
+        <v>22.39999640820793</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>34394</v>
+        <v>34759</v>
       </c>
       <c r="B16" t="n">
-        <v>51.83727</v>
+        <v>62.87861</v>
+      </c>
+      <c r="C16" t="n">
+        <v>21.30000287437979</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>34425</v>
+        <v>34790</v>
       </c>
       <c r="B17" t="n">
-        <v>53.03003</v>
+        <v>64.00725</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20.70000714689395</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>34455</v>
+        <v>34820</v>
       </c>
       <c r="B18" t="n">
-        <v>53.64703000000001</v>
+        <v>64.53738</v>
+      </c>
+      <c r="C18" t="n">
+        <v>20.300005424345</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>34486</v>
+        <v>34851</v>
       </c>
       <c r="B19" t="n">
-        <v>54.14696</v>
+        <v>64.00171</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18.20000605758847</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>34516</v>
+        <v>34881</v>
       </c>
       <c r="B20" t="n">
-        <v>54.38583000000001</v>
+        <v>63.46827</v>
+      </c>
+      <c r="C20" t="n">
+        <v>16.70001174938396</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>34547</v>
+        <v>34912</v>
       </c>
       <c r="B21" t="n">
-        <v>56.35777</v>
+        <v>64.52965</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14.50000594416707</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>34578</v>
+        <v>34943</v>
       </c>
       <c r="B22" t="n">
-        <v>58.52681</v>
+        <v>66.25234</v>
+      </c>
+      <c r="C22" t="n">
+        <v>13.19998475912152</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>34608</v>
+        <v>34973</v>
       </c>
       <c r="B23" t="n">
-        <v>59.13734</v>
+        <v>66.29295999999999</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12.10000314522093</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>34639</v>
+        <v>35004</v>
       </c>
       <c r="B24" t="n">
-        <v>59.55651999999999</v>
+        <v>66.22685</v>
+      </c>
+      <c r="C24" t="n">
+        <v>11.19999959702147</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>34669</v>
+        <v>35034</v>
       </c>
       <c r="B25" t="n">
-        <v>60.39429000000001</v>
+        <v>66.49410999999999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>10.09999455246513</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>34700</v>
+        <v>35065</v>
       </c>
       <c r="B26" t="n">
-        <v>62.13821</v>
+        <v>67.73065</v>
+      </c>
+      <c r="C26" t="n">
+        <v>9.000001770247312</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>34731</v>
+        <v>35096</v>
       </c>
       <c r="B27" t="n">
-        <v>62.70296</v>
+        <v>68.53433000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9.299991579344912</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>34759</v>
+        <v>35125</v>
       </c>
       <c r="B28" t="n">
-        <v>62.87861</v>
+        <v>69.04071</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9.799993988416734</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>34790</v>
+        <v>35156</v>
       </c>
       <c r="B29" t="n">
-        <v>64.00725</v>
+        <v>70.21595000000001</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.699994922450195</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>34820</v>
+        <v>35186</v>
       </c>
       <c r="B30" t="n">
-        <v>64.53738</v>
+        <v>70.28121</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8.900004927376969</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>34851</v>
+        <v>35217</v>
       </c>
       <c r="B31" t="n">
-        <v>64.00171</v>
+        <v>69.50586</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.600004593627265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>34881</v>
+        <v>35247</v>
       </c>
       <c r="B32" t="n">
-        <v>63.46827</v>
+        <v>68.73613</v>
+      </c>
+      <c r="C32" t="n">
+        <v>8.299989900465231</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>34912</v>
+        <v>35278</v>
       </c>
       <c r="B33" t="n">
-        <v>64.52965</v>
+        <v>69.75655</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8.099997443035868</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>34943</v>
+        <v>35309</v>
       </c>
       <c r="B34" t="n">
-        <v>66.25234</v>
+        <v>71.15501</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7.399995230357148</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>34973</v>
+        <v>35339</v>
       </c>
       <c r="B35" t="n">
-        <v>66.29295999999999</v>
+        <v>70.93346</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6.999989139118257</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>35004</v>
+        <v>35370</v>
       </c>
       <c r="B36" t="n">
-        <v>66.22685</v>
+        <v>70.79649999999999</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6.89999599860176</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>35034</v>
+        <v>35400</v>
       </c>
       <c r="B37" t="n">
-        <v>66.49410999999999</v>
+        <v>71.14870000000001</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7.000003458952997</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>35065</v>
+        <v>35431</v>
       </c>
       <c r="B38" t="n">
-        <v>67.73065</v>
+        <v>71.72676</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5.900002436120144</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>35096</v>
+        <v>35462</v>
       </c>
       <c r="B39" t="n">
-        <v>68.53433000000001</v>
+        <v>72.37225999999998</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5.600010972603031</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>35125</v>
+        <v>35490</v>
       </c>
       <c r="B40" t="n">
-        <v>69.04071</v>
+        <v>71.80234</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.000002317473261</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>35156</v>
+        <v>35521</v>
       </c>
       <c r="B41" t="n">
-        <v>70.21595000000001</v>
+        <v>72.46285999999996</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.199999430328804</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>35186</v>
+        <v>35551</v>
       </c>
       <c r="B42" t="n">
-        <v>70.28121</v>
+        <v>72.24908000000001</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.799994479321</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>35217</v>
+        <v>35582</v>
       </c>
       <c r="B43" t="n">
-        <v>69.50586</v>
+        <v>71.45201999999999</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.799994129991323</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>35247</v>
+        <v>35612</v>
       </c>
       <c r="B44" t="n">
-        <v>68.73613</v>
+        <v>70.592</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.699991983837324</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>35278</v>
+        <v>35643</v>
       </c>
       <c r="B45" t="n">
-        <v>69.75655</v>
+        <v>71.08192</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.899993620670726</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>35309</v>
+        <v>35674</v>
       </c>
       <c r="B46" t="n">
-        <v>71.15501</v>
+        <v>72.43581</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.800013800855349</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>35339</v>
+        <v>35704</v>
       </c>
       <c r="B47" t="n">
-        <v>70.93346</v>
+        <v>71.99746999999999</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.500011419152525</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>35370</v>
+        <v>35735</v>
       </c>
       <c r="B48" t="n">
-        <v>70.79649999999999</v>
+        <v>71.57526</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.099997881251191</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>35400</v>
+        <v>35765</v>
       </c>
       <c r="B49" t="n">
-        <v>71.14870000000001</v>
+        <v>71.43329</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.3999932535661221</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>35431</v>
+        <v>35796</v>
       </c>
       <c r="B50" t="n">
-        <v>71.72676</v>
+        <v>71.94194</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.2999996096296531</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>35462</v>
+        <v>35827</v>
       </c>
       <c r="B51" t="n">
-        <v>72.37225999999998</v>
+        <v>72.29989</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-0.09999687725653628</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>35490</v>
+        <v>35855</v>
       </c>
       <c r="B52" t="n">
-        <v>71.80234</v>
+        <v>72.30495000000001</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.6999911144957238</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>35521</v>
+        <v>35886</v>
       </c>
       <c r="B53" t="n">
-        <v>72.46285999999996</v>
+        <v>72.24546999999998</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-0.3000019596245296</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>35551</v>
+        <v>35916</v>
       </c>
       <c r="B54" t="n">
-        <v>72.24908000000001</v>
+        <v>71.5266</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.9999850517127706</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>35582</v>
+        <v>35947</v>
       </c>
       <c r="B55" t="n">
-        <v>71.45201999999999</v>
+        <v>70.52314</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-1.300005234281676</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>35612</v>
+        <v>35977</v>
       </c>
       <c r="B56" t="n">
-        <v>70.592</v>
+        <v>69.60370999999999</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-1.400002833182235</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>35643</v>
+        <v>36008</v>
       </c>
       <c r="B57" t="n">
-        <v>71.08192</v>
+        <v>70.08678</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-1.399990321026767</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>35674</v>
+        <v>36039</v>
       </c>
       <c r="B58" t="n">
-        <v>72.43581</v>
+        <v>71.34926999999999</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-1.500003934518046</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>35704</v>
+        <v>36069</v>
       </c>
       <c r="B59" t="n">
-        <v>71.99746999999999</v>
+        <v>71.2055</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-1.099996986005192</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>35735</v>
+        <v>36100</v>
       </c>
       <c r="B60" t="n">
-        <v>71.57526</v>
+        <v>70.71635999999999</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-1.199995640951923</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>35765</v>
+        <v>36130</v>
       </c>
       <c r="B61" t="n">
-        <v>71.43329</v>
+        <v>70.71896</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-0.9999959402681946</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>35796</v>
+        <v>36161</v>
       </c>
       <c r="B62" t="n">
-        <v>71.94194</v>
+        <v>71.07864000000001</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-1.19999544076792</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>35827</v>
+        <v>36192</v>
       </c>
       <c r="B63" t="n">
-        <v>72.29989</v>
+        <v>71.35999</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-1.300001977873011</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>35855</v>
+        <v>36220</v>
       </c>
       <c r="B64" t="n">
-        <v>72.30495000000001</v>
+        <v>71.00346</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-1.800001244728056</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>35886</v>
+        <v>36251</v>
       </c>
       <c r="B65" t="n">
-        <v>72.24546999999998</v>
+        <v>70.65607</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-2.199999529382235</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>35916</v>
+        <v>36281</v>
       </c>
       <c r="B66" t="n">
-        <v>71.5266</v>
+        <v>69.95300999999999</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-2.200006710790126</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>35947</v>
+        <v>36312</v>
       </c>
       <c r="B67" t="n">
-        <v>70.52314</v>
+        <v>69.04216</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-2.099991577232663</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>35977</v>
+        <v>36342</v>
       </c>
       <c r="B68" t="n">
-        <v>69.60370999999999</v>
+        <v>68.62926</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-1.399997212792237</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>36008</v>
+        <v>36373</v>
       </c>
       <c r="B69" t="n">
-        <v>70.08678</v>
+        <v>69.17564</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-1.300016921878855</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>36039</v>
+        <v>36404</v>
       </c>
       <c r="B70" t="n">
-        <v>71.34926999999999</v>
+        <v>70.77847</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-0.8000081850872309</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>36069</v>
+        <v>36434</v>
       </c>
       <c r="B71" t="n">
-        <v>71.2055</v>
+        <v>70.77826999999999</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-0.5999957868423222</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>36100</v>
+        <v>36465</v>
       </c>
       <c r="B72" t="n">
-        <v>70.71635999999999</v>
+        <v>70.07992</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.8999897619164643</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>36130</v>
+        <v>36495</v>
       </c>
       <c r="B73" t="n">
-        <v>70.71896</v>
+        <v>70.01177</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1.000000565619175</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>36161</v>
+        <v>36526</v>
       </c>
       <c r="B74" t="n">
-        <v>71.07864000000001</v>
+        <v>70.93649000000001</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.1999897578231713</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>36192</v>
+        <v>36557</v>
       </c>
       <c r="B75" t="n">
-        <v>71.35999</v>
+        <v>71.8595</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.6999860846393036</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>36220</v>
+        <v>36586</v>
       </c>
       <c r="B76" t="n">
-        <v>71.00346</v>
+        <v>70.86145999999999</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-0.1999902539960852</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>36251</v>
+        <v>36617</v>
       </c>
       <c r="B77" t="n">
-        <v>70.65607</v>
+        <v>70.44410000000001</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0.3000025333987466</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>36281</v>
+        <v>36647</v>
       </c>
       <c r="B78" t="n">
-        <v>69.95300999999999</v>
+        <v>70.02296</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.09999569711154344</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>36312</v>
+        <v>36678</v>
       </c>
       <c r="B79" t="n">
-        <v>69.04216</v>
+        <v>69.38736999999999</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.4999988412876855</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>36342</v>
+        <v>36708</v>
       </c>
       <c r="B80" t="n">
-        <v>68.62926</v>
+        <v>68.97241</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.5000053912864511</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>36373</v>
+        <v>36739</v>
       </c>
       <c r="B81" t="n">
-        <v>69.17564</v>
+        <v>69.38316999999999</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.3000044524344103</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>36404</v>
+        <v>36770</v>
       </c>
       <c r="B82" t="n">
         <v>70.77847</v>
       </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>36434</v>
+        <v>36800</v>
       </c>
       <c r="B83" t="n">
         <v>70.77826999999999</v>
       </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>36465</v>
+        <v>36831</v>
       </c>
       <c r="B84" t="n">
-        <v>70.07992</v>
+        <v>70.99095</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.299987214597276</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>36495</v>
+        <v>36861</v>
       </c>
       <c r="B85" t="n">
-        <v>70.01177</v>
+        <v>71.06194000000001</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.499990644430227</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>36526</v>
+        <v>36892</v>
       </c>
       <c r="B86" t="n">
-        <v>70.93649000000001</v>
+        <v>71.78771999999999</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.19998889147177</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>36557</v>
+        <v>36923</v>
       </c>
       <c r="B87" t="n">
         <v>71.8595</v>
       </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>36586</v>
+        <v>36951</v>
       </c>
       <c r="B88" t="n">
-        <v>70.86145999999999</v>
+        <v>71.42834999999999</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.7999976291767075</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>36617</v>
+        <v>36982</v>
       </c>
       <c r="B89" t="n">
-        <v>70.44410000000001</v>
+        <v>71.57120999999999</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.600006246087315</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>36647</v>
+        <v>37012</v>
       </c>
       <c r="B90" t="n">
-        <v>70.02296</v>
+        <v>71.21335000000001</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.699999543007058</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>36678</v>
+        <v>37043</v>
       </c>
       <c r="B91" t="n">
-        <v>69.38736999999999</v>
+        <v>70.3588</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.40000982887809</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>36708</v>
+        <v>37073</v>
       </c>
       <c r="B92" t="n">
-        <v>68.97241</v>
+        <v>70.00700000000001</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.500005581942121</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>36739</v>
+        <v>37104</v>
       </c>
       <c r="B93" t="n">
-        <v>69.38316999999999</v>
+        <v>70.077</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.9999975498381053</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>36770</v>
+        <v>37135</v>
       </c>
       <c r="B94" t="n">
-        <v>70.77847</v>
+        <v>70.7077</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-0.09998803308406412</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>36800</v>
+        <v>37165</v>
       </c>
       <c r="B95" t="n">
-        <v>70.77826999999999</v>
+        <v>70.91982</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.1999907598758899</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>36831</v>
+        <v>37196</v>
       </c>
       <c r="B96" t="n">
-        <v>70.99095</v>
+        <v>70.77798</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0.299995985403767</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>36861</v>
+        <v>37226</v>
       </c>
       <c r="B97" t="n">
-        <v>71.06194000000001</v>
+        <v>70.84876</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.2999918099618526</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>36892</v>
+        <v>37257</v>
       </c>
       <c r="B98" t="n">
-        <v>71.78771999999999</v>
+        <v>71.0613</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-1.011900085418493</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>36923</v>
+        <v>37288</v>
       </c>
       <c r="B99" t="n">
-        <v>71.8595</v>
+        <v>71.84298000000001</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0.02298930551978273</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>36951</v>
+        <v>37316</v>
       </c>
       <c r="B100" t="n">
-        <v>71.42834999999999</v>
+        <v>70.90902</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0.7270642538991789</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>36982</v>
+        <v>37347</v>
       </c>
       <c r="B101" t="n">
-        <v>71.57120999999999</v>
+        <v>70.69629999999999</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-1.222432874894808</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>37012</v>
+        <v>37377</v>
       </c>
       <c r="B102" t="n">
-        <v>71.21335000000001</v>
+        <v>70.48421</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-1.023881056009868</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>37043</v>
+        <v>37408</v>
       </c>
       <c r="B103" t="n">
-        <v>70.3588</v>
+        <v>69.84985</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-0.7233636730586634</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>37073</v>
+        <v>37438</v>
       </c>
       <c r="B104" t="n">
-        <v>70.00700000000001</v>
+        <v>69.3609</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-0.9229077092290816</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>37104</v>
+        <v>37469</v>
       </c>
       <c r="B105" t="n">
-        <v>70.077</v>
+        <v>69.56898000000001</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-0.724945417183942</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>37135</v>
+        <v>37500</v>
       </c>
       <c r="B106" t="n">
-        <v>70.7077</v>
+        <v>70.26467</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-0.6265654235677376</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>37165</v>
+        <v>37530</v>
       </c>
       <c r="B107" t="n">
-        <v>70.91982</v>
+        <v>70.40519999999999</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-0.7256363594831616</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>37196</v>
+        <v>37561</v>
       </c>
       <c r="B108" t="n">
-        <v>70.77798</v>
+        <v>70.33479</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-0.6261693255444678</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>37226</v>
+        <v>37591</v>
       </c>
       <c r="B109" t="n">
-        <v>70.84876</v>
+        <v>70.5458</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-0.4276151057548527</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>37257</v>
+        <v>37622</v>
       </c>
       <c r="B110" t="n">
-        <v>71.0613</v>
+        <v>71.3218</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.3665849062710613</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>37288</v>
+        <v>37653</v>
       </c>
       <c r="B111" t="n">
-        <v>71.84298000000001</v>
+        <v>71.9637</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.1680331188934403</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>37316</v>
+        <v>37681</v>
       </c>
       <c r="B112" t="n">
-        <v>70.90902</v>
+        <v>71.53191</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.8784354938200956</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>37347</v>
+        <v>37712</v>
       </c>
       <c r="B113" t="n">
-        <v>70.69629999999999</v>
+        <v>71.38885000000001</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.9796127944461164</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>37377</v>
+        <v>37742</v>
       </c>
       <c r="B114" t="n">
-        <v>70.48421</v>
+        <v>70.88913000000001</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.5744832778859399</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>37408</v>
+        <v>37773</v>
       </c>
       <c r="B115" t="n">
-        <v>69.84985</v>
+        <v>70.03846</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.2700220544496368</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>37438</v>
+        <v>37803</v>
       </c>
       <c r="B116" t="n">
-        <v>69.3609</v>
+        <v>69.68826999999999</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.4719806115549119</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>37469</v>
+        <v>37834</v>
       </c>
       <c r="B117" t="n">
-        <v>69.56898000000001</v>
+        <v>70.17609</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.8726734242761491</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>37500</v>
+        <v>37865</v>
       </c>
       <c r="B118" t="n">
-        <v>70.26467</v>
+        <v>71.01819999999999</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.0724166213262</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>37530</v>
+        <v>37895</v>
       </c>
       <c r="B119" t="n">
-        <v>70.40519999999999</v>
+        <v>71.65736</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.77850499679002</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>37561</v>
+        <v>37926</v>
       </c>
       <c r="B120" t="n">
-        <v>70.33479</v>
+        <v>72.37394</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.899205357689993</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>37591</v>
+        <v>37956</v>
       </c>
       <c r="B121" t="n">
-        <v>70.5458</v>
+        <v>72.80818000000002</v>
+      </c>
+      <c r="C121" t="n">
+        <v>3.206966254546728</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>37622</v>
+        <v>37987</v>
       </c>
       <c r="B122" t="n">
-        <v>71.3218</v>
+        <v>73.60907</v>
+      </c>
+      <c r="C122" t="n">
+        <v>3.206971781418866</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>37653</v>
+        <v>38018</v>
       </c>
       <c r="B123" t="n">
-        <v>71.9637</v>
+        <v>73.46185</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.081813469846594</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>37681</v>
+        <v>38047</v>
       </c>
       <c r="B124" t="n">
-        <v>71.53191</v>
+        <v>73.68224000000002</v>
+      </c>
+      <c r="C124" t="n">
+        <v>3.006112936170768</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>37712</v>
+        <v>38078</v>
       </c>
       <c r="B125" t="n">
-        <v>71.38885000000001</v>
+        <v>74.05065</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3.728593470829122</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>37742</v>
+        <v>38108</v>
       </c>
       <c r="B126" t="n">
-        <v>70.88913000000001</v>
+        <v>73.9766</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4.355350390109169</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>37773</v>
+        <v>38139</v>
       </c>
       <c r="B127" t="n">
-        <v>70.03846</v>
+        <v>73.45876</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.88345974483162</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>37803</v>
+        <v>38169</v>
       </c>
       <c r="B128" t="n">
-        <v>69.68826999999999</v>
+        <v>73.31184</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5.199684251022463</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>37834</v>
+        <v>38200</v>
       </c>
       <c r="B129" t="n">
-        <v>70.17609</v>
+        <v>73.82503</v>
+      </c>
+      <c r="C129" t="n">
+        <v>5.199691233866122</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>37865</v>
+        <v>38231</v>
       </c>
       <c r="B130" t="n">
-        <v>71.01819999999999</v>
+        <v>74.6371</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5.095736022597031</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>37895</v>
+        <v>38261</v>
       </c>
       <c r="B131" t="n">
-        <v>71.65736</v>
+        <v>74.6371</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4.158316745132673</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>37926</v>
+        <v>38292</v>
       </c>
       <c r="B132" t="n">
-        <v>72.37394</v>
+        <v>74.41319</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.817657847562249</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>37956</v>
+        <v>38322</v>
       </c>
       <c r="B133" t="n">
-        <v>72.80818000000002</v>
+        <v>74.4876</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.30663642464346</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>37987</v>
+        <v>38353</v>
       </c>
       <c r="B134" t="n">
-        <v>73.60907</v>
+        <v>74.93453000000001</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.80067483531583</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>38018</v>
+        <v>38384</v>
       </c>
       <c r="B135" t="n">
-        <v>73.46185</v>
+        <v>76.28336</v>
+      </c>
+      <c r="C135" t="n">
+        <v>3.84078266474368</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>38047</v>
+        <v>38412</v>
       </c>
       <c r="B136" t="n">
-        <v>73.68224000000002</v>
+        <v>75.5968</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.598400917235932</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>38078</v>
+        <v>38443</v>
       </c>
       <c r="B137" t="n">
-        <v>74.05065</v>
+        <v>75.37000999999998</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.781699417898386</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>38108</v>
+        <v>38473</v>
       </c>
       <c r="B138" t="n">
-        <v>73.9766</v>
+        <v>75.21926999999998</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.679814968517035</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>38139</v>
+        <v>38504</v>
       </c>
       <c r="B139" t="n">
-        <v>73.45876</v>
+        <v>74.61752</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.577429295022137</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>38169</v>
+        <v>38534</v>
       </c>
       <c r="B140" t="n">
-        <v>73.31184</v>
+        <v>74.61752</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.780994720634488</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>38200</v>
+        <v>38565</v>
       </c>
       <c r="B141" t="n">
-        <v>73.82503</v>
+        <v>74.76675</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.275610724438581</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>38231</v>
+        <v>38596</v>
       </c>
       <c r="B142" t="n">
-        <v>74.6371</v>
+        <v>75.29012</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.8749268125369358</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>38261</v>
+        <v>38626</v>
       </c>
       <c r="B143" t="n">
-        <v>74.6371</v>
+        <v>75.59128</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.27842587667526</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>38292</v>
+        <v>38657</v>
       </c>
       <c r="B144" t="n">
-        <v>74.41319</v>
+        <v>75.36450999999998</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.278429267714465</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>38322</v>
+        <v>38687</v>
       </c>
       <c r="B145" t="n">
-        <v>74.4876</v>
+        <v>75.66596</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.581954580359679</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>38353</v>
+        <v>38718</v>
       </c>
       <c r="B146" t="n">
-        <v>74.93453000000001</v>
+        <v>76.64962</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.28878462305695</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>38384</v>
+        <v>38749</v>
       </c>
       <c r="B147" t="n">
-        <v>76.28336</v>
+        <v>77.03287</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.9825340677180439</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>38412</v>
+        <v>38777</v>
       </c>
       <c r="B148" t="n">
-        <v>75.5968</v>
+        <v>76.33958</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.9825548171351173</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>38443</v>
+        <v>38808</v>
       </c>
       <c r="B149" t="n">
-        <v>75.37000999999998</v>
+        <v>76.49226</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.488987463316005</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>38473</v>
+        <v>38838</v>
       </c>
       <c r="B150" t="n">
-        <v>75.21926999999998</v>
+        <v>76.41575999999996</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.590669518595411</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>38504</v>
+        <v>38869</v>
       </c>
       <c r="B151" t="n">
-        <v>74.61752</v>
+        <v>76.03368</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.897892076820562</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>38534</v>
+        <v>38899</v>
       </c>
       <c r="B152" t="n">
-        <v>74.61752</v>
+        <v>75.80558000000001</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.592199794364668</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>38565</v>
+        <v>38930</v>
       </c>
       <c r="B153" t="n">
-        <v>74.76675</v>
+        <v>76.033</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.693600430672726</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>38596</v>
+        <v>38961</v>
       </c>
       <c r="B154" t="n">
-        <v>75.29012</v>
+        <v>76.41315999999999</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.491616695523912</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>38626</v>
+        <v>38991</v>
       </c>
       <c r="B155" t="n">
-        <v>75.59128</v>
+        <v>76.48958</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.188364583851476</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>38657</v>
+        <v>39022</v>
       </c>
       <c r="B156" t="n">
-        <v>75.36450999999998</v>
+        <v>76.71904999999998</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.79731812759083</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>38687</v>
+        <v>39052</v>
       </c>
       <c r="B157" t="n">
-        <v>75.66596</v>
+        <v>77.79311</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2.811237708475511</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>38718</v>
+        <v>39083</v>
       </c>
       <c r="B158" t="n">
-        <v>76.64962</v>
+        <v>78.33766</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2.202280976735427</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>38749</v>
+        <v>39114</v>
       </c>
       <c r="B159" t="n">
-        <v>77.03287</v>
+        <v>79.12104000000002</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2.710751916681819</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>38777</v>
+        <v>39142</v>
       </c>
       <c r="B160" t="n">
-        <v>76.33958</v>
+        <v>78.88366999999998</v>
+      </c>
+      <c r="C160" t="n">
+        <v>3.332596275745803</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>38808</v>
+        <v>39173</v>
       </c>
       <c r="B161" t="n">
-        <v>76.49226</v>
+        <v>78.80478999999998</v>
+      </c>
+      <c r="C161" t="n">
+        <v>3.023220911501356</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>38838</v>
+        <v>39203</v>
       </c>
       <c r="B162" t="n">
-        <v>76.41575999999996</v>
+        <v>79.04120999999996</v>
+      </c>
+      <c r="C162" t="n">
+        <v>3.43574414492509</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>38869</v>
+        <v>39234</v>
       </c>
       <c r="B163" t="n">
-        <v>76.03368</v>
+        <v>79.35738000000001</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4.371352274413121</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>38899</v>
+        <v>39264</v>
       </c>
       <c r="B164" t="n">
-        <v>75.80558000000001</v>
+        <v>80.07159</v>
+      </c>
+      <c r="C164" t="n">
+        <v>5.627567258241406</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>38930</v>
+        <v>39295</v>
       </c>
       <c r="B165" t="n">
-        <v>76.033</v>
+        <v>81.03244999999998</v>
+      </c>
+      <c r="C165" t="n">
+        <v>6.575368589954333</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>38961</v>
+        <v>39326</v>
       </c>
       <c r="B166" t="n">
-        <v>76.41315999999999</v>
+        <v>81.27554000000001</v>
+      </c>
+      <c r="C166" t="n">
+        <v>6.363275645189925</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>38991</v>
+        <v>39356</v>
       </c>
       <c r="B167" t="n">
-        <v>76.48958</v>
+        <v>81.51936999999998</v>
+      </c>
+      <c r="C167" t="n">
+        <v>6.575784570917986</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>39022</v>
+        <v>39387</v>
       </c>
       <c r="B168" t="n">
-        <v>76.71904999999998</v>
+        <v>82.09000999999996</v>
+      </c>
+      <c r="C168" t="n">
+        <v>7.000816615951289</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>39052</v>
+        <v>39417</v>
       </c>
       <c r="B169" t="n">
-        <v>77.79311</v>
+        <v>82.91091</v>
+      </c>
+      <c r="C169" t="n">
+        <v>6.578731715443698</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>39083</v>
+        <v>39448</v>
       </c>
       <c r="B170" t="n">
-        <v>78.33766</v>
+        <v>83.90584</v>
+      </c>
+      <c r="C170" t="n">
+        <v>7.107922294334545</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>39114</v>
+        <v>39479</v>
       </c>
       <c r="B171" t="n">
-        <v>79.12104000000002</v>
+        <v>86.08739</v>
+      </c>
+      <c r="C171" t="n">
+        <v>8.80467445827302</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>39142</v>
+        <v>39508</v>
       </c>
       <c r="B172" t="n">
-        <v>78.88366999999998</v>
+        <v>85.48478</v>
+      </c>
+      <c r="C172" t="n">
+        <v>8.368157820243427</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>39173</v>
+        <v>39539</v>
       </c>
       <c r="B173" t="n">
-        <v>78.80478999999998</v>
+        <v>85.57026999999998</v>
+      </c>
+      <c r="C173" t="n">
+        <v>8.58511265622306</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>39203</v>
+        <v>39569</v>
       </c>
       <c r="B174" t="n">
-        <v>79.04120999999996</v>
+        <v>85.22798</v>
+      </c>
+      <c r="C174" t="n">
+        <v>7.827271368947963</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>39234</v>
+        <v>39600</v>
       </c>
       <c r="B175" t="n">
-        <v>79.35738000000001</v>
+        <v>85.05753</v>
+      </c>
+      <c r="C175" t="n">
+        <v>7.182885826119745</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>39264</v>
+        <v>39630</v>
       </c>
       <c r="B176" t="n">
-        <v>80.07159</v>
+        <v>85.14259</v>
+      </c>
+      <c r="C176" t="n">
+        <v>6.333082682634372</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>39295</v>
+        <v>39661</v>
       </c>
       <c r="B177" t="n">
-        <v>81.03244999999998</v>
+        <v>85.05744</v>
+      </c>
+      <c r="C177" t="n">
+        <v>4.967133537243429</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>39326</v>
+        <v>39692</v>
       </c>
       <c r="B178" t="n">
-        <v>81.27554000000001</v>
+        <v>85.05744</v>
+      </c>
+      <c r="C178" t="n">
+        <v>4.653183479310008</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>39356</v>
+        <v>39722</v>
       </c>
       <c r="B179" t="n">
-        <v>81.51936999999998</v>
+        <v>84.80226999999998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4.027141034087967</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>39387</v>
+        <v>39753</v>
       </c>
       <c r="B180" t="n">
-        <v>82.09000999999996</v>
+        <v>84.12385</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.477573093242458</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>39417</v>
+        <v>39783</v>
       </c>
       <c r="B181" t="n">
-        <v>82.91091</v>
+        <v>83.9556</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.260015117431479</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>39448</v>
+        <v>39814</v>
       </c>
       <c r="B182" t="n">
-        <v>83.90584</v>
+        <v>84.71120000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.9598378372709382</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>39479</v>
+        <v>39845</v>
       </c>
       <c r="B183" t="n">
-        <v>86.08739</v>
+        <v>84.71120000000001</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-1.598596495956017</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>39508</v>
+        <v>39873</v>
       </c>
       <c r="B184" t="n">
-        <v>85.48478</v>
+        <v>84.45707</v>
+      </c>
+      <c r="C184" t="n">
+        <v>-1.202214008154434</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>39539</v>
+        <v>39904</v>
       </c>
       <c r="B185" t="n">
-        <v>85.57026999999998</v>
+        <v>84.28815</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-1.498324125890893</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>39569</v>
+        <v>39934</v>
       </c>
       <c r="B186" t="n">
-        <v>85.22798</v>
+        <v>84.03529</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-1.399411320085253</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>39600</v>
+        <v>39965</v>
       </c>
       <c r="B187" t="n">
-        <v>85.05753</v>
+        <v>83.61511</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-1.695816937077765</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>39630</v>
+        <v>39995</v>
       </c>
       <c r="B188" t="n">
-        <v>85.14259</v>
+        <v>83.61511</v>
+      </c>
+      <c r="C188" t="n">
+        <v>-1.794025763134521</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>39661</v>
+        <v>40026</v>
       </c>
       <c r="B189" t="n">
-        <v>85.05744</v>
+        <v>84.03319</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-1.204186253430617</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>39692</v>
+        <v>40057</v>
       </c>
       <c r="B190" t="n">
-        <v>85.05744</v>
+        <v>84.36932</v>
+      </c>
+      <c r="C190" t="n">
+        <v>-0.8090062433103951</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>39722</v>
+        <v>40087</v>
       </c>
       <c r="B191" t="n">
-        <v>84.80226999999998</v>
+        <v>84.28703</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-0.6075780754453586</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>39753</v>
+        <v>40118</v>
       </c>
       <c r="B192" t="n">
-        <v>84.12385</v>
+        <v>84.54066</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.4954718548901393</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>39783</v>
+        <v>40148</v>
       </c>
       <c r="B193" t="n">
-        <v>83.9556</v>
+        <v>85.38613999999998</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.703924455307315</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>39814</v>
+        <v>40179</v>
       </c>
       <c r="B194" t="n">
-        <v>84.71120000000001</v>
+        <v>85.89341999999996</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.395588776926737</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>39845</v>
+        <v>40210</v>
       </c>
       <c r="B195" t="n">
-        <v>84.71120000000001</v>
+        <v>86.92914</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2.618237021786962</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>39873</v>
+        <v>40238</v>
       </c>
       <c r="B196" t="n">
-        <v>84.45707</v>
+        <v>86.31617</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2.201236675627039</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>39904</v>
+        <v>40269</v>
       </c>
       <c r="B197" t="n">
-        <v>84.28815</v>
+        <v>86.49231</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.61502951482504</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>39934</v>
+        <v>40299</v>
       </c>
       <c r="B198" t="n">
-        <v>84.03529</v>
+        <v>86.40775999999998</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.823182974676453</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>39965</v>
+        <v>40330</v>
       </c>
       <c r="B199" t="n">
-        <v>83.61511</v>
+        <v>85.88638</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.716339187976913</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>39995</v>
+        <v>40360</v>
       </c>
       <c r="B200" t="n">
-        <v>83.61511</v>
+        <v>86.23161999999996</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.129231068403748</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>40026</v>
+        <v>40391</v>
       </c>
       <c r="B201" t="n">
-        <v>84.03319</v>
+        <v>86.74594999999998</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3.228200666903125</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>40057</v>
+        <v>40422</v>
       </c>
       <c r="B202" t="n">
-        <v>84.36932</v>
+        <v>87.26733</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3.434909751554227</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>40087</v>
+        <v>40452</v>
       </c>
       <c r="B203" t="n">
-        <v>84.28703</v>
+        <v>87.88030000000001</v>
+      </c>
+      <c r="C203" t="n">
+        <v>4.263135146653063</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>40118</v>
+        <v>40483</v>
       </c>
       <c r="B204" t="n">
-        <v>84.54066</v>
+        <v>88.84555</v>
+      </c>
+      <c r="C204" t="n">
+        <v>5.092094147360582</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>40148</v>
+        <v>40513</v>
       </c>
       <c r="B205" t="n">
-        <v>85.38613999999998</v>
+        <v>89.28943000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>4.571339095548788</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>40179</v>
+        <v>40544</v>
       </c>
       <c r="B206" t="n">
-        <v>85.89341999999996</v>
+        <v>90.18423000000001</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4.995504894321412</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>40210</v>
+        <v>40575</v>
       </c>
       <c r="B207" t="n">
-        <v>86.92914</v>
+        <v>91.33717</v>
+      </c>
+      <c r="C207" t="n">
+        <v>5.070831254053587</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>40238</v>
+        <v>40603</v>
       </c>
       <c r="B208" t="n">
-        <v>86.31617</v>
+        <v>91.15383000000001</v>
+      </c>
+      <c r="C208" t="n">
+        <v>5.604581389558883</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>40269</v>
+        <v>40634</v>
       </c>
       <c r="B209" t="n">
-        <v>86.49231</v>
+        <v>91.24550000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>5.495505901044839</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>40299</v>
+        <v>40664</v>
       </c>
       <c r="B210" t="n">
-        <v>86.40775999999998</v>
+        <v>91.33717</v>
+      </c>
+      <c r="C210" t="n">
+        <v>5.70482327050259</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>40330</v>
+        <v>40695</v>
       </c>
       <c r="B211" t="n">
-        <v>85.88638</v>
+        <v>91.61217000000001</v>
+      </c>
+      <c r="C211" t="n">
+        <v>6.666703148974262</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>40360</v>
+        <v>40725</v>
       </c>
       <c r="B212" t="n">
-        <v>86.23161999999996</v>
+        <v>92.01405</v>
+      </c>
+      <c r="C212" t="n">
+        <v>6.705695660130284</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>40391</v>
+        <v>40756</v>
       </c>
       <c r="B213" t="n">
-        <v>86.74594999999998</v>
+        <v>92.27545000000001</v>
+      </c>
+      <c r="C213" t="n">
+        <v>6.374360993222195</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>40422</v>
+        <v>40787</v>
       </c>
       <c r="B214" t="n">
-        <v>87.26733</v>
+        <v>92.71113</v>
+      </c>
+      <c r="C214" t="n">
+        <v>6.238073285844759</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>40452</v>
+        <v>40817</v>
       </c>
       <c r="B215" t="n">
-        <v>87.88030000000001</v>
+        <v>92.79826000000001</v>
+      </c>
+      <c r="C215" t="n">
+        <v>5.596203017058432</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>40483</v>
+        <v>40848</v>
       </c>
       <c r="B216" t="n">
-        <v>88.84555</v>
+        <v>92.62399000000001</v>
+      </c>
+      <c r="C216" t="n">
+        <v>4.252818514827128</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>40513</v>
+        <v>40878</v>
       </c>
       <c r="B217" t="n">
-        <v>89.28943000000001</v>
+        <v>92.88539</v>
+      </c>
+      <c r="C217" t="n">
+        <v>4.027307599566932</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>40544</v>
+        <v>40909</v>
       </c>
       <c r="B218" t="n">
-        <v>90.18423000000001</v>
+        <v>94.27955</v>
+      </c>
+      <c r="C218" t="n">
+        <v>4.541060005723829</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>40575</v>
+        <v>40940</v>
       </c>
       <c r="B219" t="n">
-        <v>91.33717</v>
+        <v>94.19241</v>
+      </c>
+      <c r="C219" t="n">
+        <v>3.126043865821537</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>40603</v>
+        <v>40969</v>
       </c>
       <c r="B220" t="n">
-        <v>91.15383000000001</v>
+        <v>94.36668</v>
+      </c>
+      <c r="C220" t="n">
+        <v>3.524646194241088</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>40634</v>
+        <v>41000</v>
       </c>
       <c r="B221" t="n">
-        <v>91.24550000000001</v>
+        <v>94.27955</v>
+      </c>
+      <c r="C221" t="n">
+        <v>3.325150281383737</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>40664</v>
+        <v>41030</v>
       </c>
       <c r="B222" t="n">
-        <v>91.33717</v>
+        <v>94.01814</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2.93524531141045</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>40695</v>
+        <v>41061</v>
       </c>
       <c r="B223" t="n">
-        <v>91.61217000000001</v>
+        <v>93.49534000000001</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2.055589339276653</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>40725</v>
+        <v>41091</v>
       </c>
       <c r="B224" t="n">
-        <v>92.01405</v>
+        <v>93.58247</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1.704544034307798</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>40756</v>
+        <v>41122</v>
       </c>
       <c r="B225" t="n">
-        <v>92.27545000000001</v>
+        <v>94.193</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2.078071686456129</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>40787</v>
+        <v>41153</v>
       </c>
       <c r="B226" t="n">
-        <v>92.71113</v>
+        <v>94.48211000000001</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1.910212937756239</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>40817</v>
+        <v>41183</v>
       </c>
       <c r="B227" t="n">
-        <v>92.79826000000001</v>
+        <v>94.38338</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1.708135475816031</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>40848</v>
+        <v>41214</v>
       </c>
       <c r="B228" t="n">
-        <v>92.62399000000001</v>
+        <v>94.54095</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2.069615010106984</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>40878</v>
+        <v>41244</v>
       </c>
       <c r="B229" t="n">
-        <v>92.88539</v>
+        <v>95.23661000000001</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2.531313051492834</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>40909</v>
+        <v>41275</v>
       </c>
       <c r="B230" t="n">
-        <v>94.27955</v>
+        <v>96.18855000000001</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2.024829350585589</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>40940</v>
+        <v>41306</v>
       </c>
       <c r="B231" t="n">
-        <v>94.19241</v>
+        <v>97.24627</v>
+      </c>
+      <c r="C231" t="n">
+        <v>3.242150827226942</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>40969</v>
+        <v>41334</v>
       </c>
       <c r="B232" t="n">
-        <v>94.36668</v>
+        <v>96.37188999999999</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2.124913157906994</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>41000</v>
+        <v>41365</v>
       </c>
       <c r="B233" t="n">
-        <v>94.27955</v>
+        <v>96.56242</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2.421384064730892</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>41030</v>
+        <v>41395</v>
       </c>
       <c r="B234" t="n">
-        <v>94.01814</v>
+        <v>95.98406000000001</v>
+      </c>
+      <c r="C234" t="n">
+        <v>2.091000736666371</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>41061</v>
+        <v>41426</v>
       </c>
       <c r="B235" t="n">
-        <v>93.49534000000001</v>
+        <v>95.98406000000001</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2.661865286547971</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>41091</v>
+        <v>41456</v>
       </c>
       <c r="B236" t="n">
-        <v>93.58247</v>
+        <v>96.07897</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2.667700478519097</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>41122</v>
+        <v>41487</v>
       </c>
       <c r="B237" t="n">
-        <v>94.193</v>
+        <v>96.56228</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2.515346150987874</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>41153</v>
+        <v>41518</v>
       </c>
       <c r="B238" t="n">
-        <v>94.48211000000001</v>
+        <v>97.33187</v>
+      </c>
+      <c r="C238" t="n">
+        <v>3.016190049100298</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>41183</v>
+        <v>41548</v>
       </c>
       <c r="B239" t="n">
-        <v>94.38338</v>
+        <v>97.42959999999999</v>
+      </c>
+      <c r="C239" t="n">
+        <v>3.227496196893975</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>41214</v>
+        <v>41579</v>
       </c>
       <c r="B240" t="n">
-        <v>94.54095</v>
+        <v>97.3318</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2.952001222750567</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>41244</v>
+        <v>41609</v>
       </c>
       <c r="B241" t="n">
-        <v>95.23661000000001</v>
+        <v>97.6238</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2.506588590249059</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>41275</v>
+        <v>41640</v>
       </c>
       <c r="B242" t="n">
-        <v>96.18855000000001</v>
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2.50700317241499</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>41306</v>
+        <v>41671</v>
       </c>
       <c r="B243" t="n">
-        <v>97.24627</v>
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1.906222212944519</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>41334</v>
+        <v>41699</v>
       </c>
       <c r="B244" t="n">
-        <v>96.37188999999999</v>
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2.311991598379981</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>41365</v>
+        <v>41730</v>
       </c>
       <c r="B245" t="n">
-        <v>96.56242</v>
+        <v>98.2</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1.695877133153867</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>41395</v>
+        <v>41760</v>
       </c>
       <c r="B246" t="n">
-        <v>95.98406000000001</v>
+        <v>98.3</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2.412838131664752</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>41426</v>
+        <v>41791</v>
       </c>
       <c r="B247" t="n">
-        <v>95.98406000000001</v>
+        <v>98.2</v>
+      </c>
+      <c r="C247" t="n">
+        <v>2.308654166118829</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>41456</v>
+        <v>41821</v>
       </c>
       <c r="B248" t="n">
-        <v>96.07897</v>
+        <v>98.2</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2.207590277039828</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>41487</v>
+        <v>41852</v>
       </c>
       <c r="B249" t="n">
-        <v>96.56228</v>
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1.903144789041855</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>41518</v>
+        <v>41883</v>
       </c>
       <c r="B250" t="n">
-        <v>97.33187</v>
+        <v>98.90000000000001</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1.611116687678971</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>41548</v>
+        <v>41913</v>
       </c>
       <c r="B251" t="n">
-        <v>97.42959999999999</v>
+        <v>98.90000000000001</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1.509192278322002</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>41579</v>
+        <v>41944</v>
       </c>
       <c r="B252" t="n">
-        <v>97.3318</v>
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1.302965731651939</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>41609</v>
+        <v>41974</v>
       </c>
       <c r="B253" t="n">
-        <v>97.6238</v>
+        <v>99</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1.409697225471662</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>41640</v>
+        <v>42005</v>
       </c>
       <c r="B254" t="n">
-        <v>98.59999999999999</v>
+        <v>99.3</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.7099391480730244</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>41671</v>
+        <v>42036</v>
       </c>
       <c r="B255" t="n">
-        <v>99.09999999999999</v>
+        <v>100.5</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1.412714429868833</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>41699</v>
+        <v>42064</v>
       </c>
       <c r="B256" t="n">
-        <v>98.59999999999999</v>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1.318458417849899</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>41730</v>
+        <v>42095</v>
       </c>
       <c r="B257" t="n">
-        <v>98.2</v>
+        <v>99.7</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1.527494908350313</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>41760</v>
+        <v>42125</v>
       </c>
       <c r="B258" t="n">
-        <v>98.3</v>
+        <v>99.5</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1.220752797558489</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>41791</v>
+        <v>42156</v>
       </c>
       <c r="B259" t="n">
-        <v>98.2</v>
+        <v>99.5</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1.323828920570258</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>41821</v>
+        <v>42186</v>
       </c>
       <c r="B260" t="n">
-        <v>98.2</v>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1.731160896130346</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>41852</v>
+        <v>42217</v>
       </c>
       <c r="B261" t="n">
-        <v>98.40000000000001</v>
+        <v>100.4</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2.032520325203246</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>41883</v>
+        <v>42248</v>
       </c>
       <c r="B262" t="n">
-        <v>98.90000000000001</v>
+        <v>100.5</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1.617795753286133</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>41913</v>
+        <v>42278</v>
       </c>
       <c r="B263" t="n">
-        <v>98.90000000000001</v>
+        <v>100.1</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1.213346814964589</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>41944</v>
+        <v>42309</v>
       </c>
       <c r="B264" t="n">
-        <v>98.59999999999999</v>
+        <v>100.1</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1.521298174442198</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>41974</v>
+        <v>42339</v>
       </c>
       <c r="B265" t="n">
-        <v>99</v>
+        <v>100.6</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1.616161616161604</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>42005</v>
+        <v>42370</v>
       </c>
       <c r="B266" t="n">
-        <v>99.3</v>
+        <v>101.1</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1.812688821752273</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>42036</v>
+        <v>42401</v>
       </c>
       <c r="B267" t="n">
-        <v>100.5</v>
+        <v>102.7</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2.189054726368167</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>42064</v>
+        <v>42430</v>
       </c>
       <c r="B268" t="n">
-        <v>99.90000000000001</v>
+        <v>102.2</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2.302302302302306</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>42095</v>
+        <v>42461</v>
       </c>
       <c r="B269" t="n">
-        <v>99.7</v>
+        <v>102</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2.306920762286868</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>42125</v>
+        <v>42491</v>
       </c>
       <c r="B270" t="n">
-        <v>99.5</v>
+        <v>101.6</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2.110552763819085</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>42156</v>
+        <v>42522</v>
       </c>
       <c r="B271" t="n">
-        <v>99.5</v>
+        <v>101.4</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1.909547738693473</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>42186</v>
+        <v>42552</v>
       </c>
       <c r="B272" t="n">
-        <v>99.90000000000001</v>
+        <v>101.6</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1.701701701701697</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>42217</v>
+        <v>42583</v>
       </c>
       <c r="B273" t="n">
-        <v>100.4</v>
+        <v>101.7</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1.294820717131473</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>42248</v>
+        <v>42614</v>
       </c>
       <c r="B274" t="n">
-        <v>100.5</v>
+        <v>102.4</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1.890547263681608</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>42278</v>
+        <v>42644</v>
       </c>
       <c r="B275" t="n">
-        <v>100.1</v>
+        <v>102.3</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2.19780219780219</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>42309</v>
+        <v>42675</v>
       </c>
       <c r="B276" t="n">
-        <v>100.1</v>
+        <v>102.4</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2.29770229770232</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>42339</v>
+        <v>42705</v>
       </c>
       <c r="B277" t="n">
-        <v>100.6</v>
+        <v>102.6</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1.988071570576544</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>42370</v>
+        <v>42736</v>
       </c>
       <c r="B278" t="n">
-        <v>101.1</v>
+        <v>103.7</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2.571711177052438</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>42401</v>
+        <v>42767</v>
       </c>
       <c r="B279" t="n">
-        <v>102.7</v>
+        <v>103.5</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.778967867575453</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>42430</v>
+        <v>42795</v>
       </c>
       <c r="B280" t="n">
-        <v>102.2</v>
+        <v>103.2</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.9784735812133016</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="B281" t="n">
-        <v>102</v>
+        <v>103.2</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1.17647058823529</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>42491</v>
+        <v>42856</v>
       </c>
       <c r="B282" t="n">
-        <v>101.6</v>
+        <v>103.3</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1.67322834645669</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>42522</v>
+        <v>42887</v>
       </c>
       <c r="B283" t="n">
-        <v>101.4</v>
+        <v>103.1</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1.67652859960552</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>42552</v>
+        <v>42917</v>
       </c>
       <c r="B284" t="n">
-        <v>101.6</v>
+        <v>103</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1.377952755905509</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>42583</v>
+        <v>42948</v>
       </c>
       <c r="B285" t="n">
-        <v>101.7</v>
+        <v>103.5</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1.769911504424782</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>42614</v>
+        <v>42979</v>
       </c>
       <c r="B286" t="n">
-        <v>102.4</v>
+        <v>104.1</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1.660156249999978</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>42644</v>
+        <v>43009</v>
       </c>
       <c r="B287" t="n">
-        <v>102.3</v>
+        <v>104.2</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1.857282502443791</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>42675</v>
+        <v>43040</v>
       </c>
       <c r="B288" t="n">
-        <v>102.4</v>
+        <v>104.2</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1.7578125</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>42705</v>
+        <v>43070</v>
       </c>
       <c r="B289" t="n">
-        <v>102.6</v>
+        <v>104.5</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1.85185185185186</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="B290" t="n">
-        <v>103.7</v>
+        <v>105.2</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1.446480231436831</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>42767</v>
+        <v>43132</v>
       </c>
       <c r="B291" t="n">
-        <v>103.5</v>
+        <v>106.5</v>
+      </c>
+      <c r="C291" t="n">
+        <v>2.898550724637672</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>42795</v>
+        <v>43160</v>
       </c>
       <c r="B292" t="n">
-        <v>103.2</v>
+        <v>105.3</v>
+      </c>
+      <c r="C292" t="n">
+        <v>2.034883720930236</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="B293" t="n">
-        <v>103.2</v>
+        <v>105.1</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1.841085271317811</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>42856</v>
+        <v>43221</v>
       </c>
       <c r="B294" t="n">
-        <v>103.3</v>
+        <v>104.9</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1.548886737657318</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>42887</v>
+        <v>43252</v>
       </c>
       <c r="B295" t="n">
-        <v>103.1</v>
+        <v>104.9</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1.745877788554817</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="B296" t="n">
-        <v>103</v>
+        <v>105.2</v>
+      </c>
+      <c r="C296" t="n">
+        <v>2.135922330097095</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>42948</v>
+        <v>43313</v>
       </c>
       <c r="B297" t="n">
-        <v>103.5</v>
+        <v>105.9</v>
+      </c>
+      <c r="C297" t="n">
+        <v>2.318840579710146</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="B298" t="n">
-        <v>104.1</v>
+        <v>106.6</v>
+      </c>
+      <c r="C298" t="n">
+        <v>2.401536983669539</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="B299" t="n">
-        <v>104.2</v>
+        <v>106.8</v>
+      </c>
+      <c r="C299" t="n">
+        <v>2.49520153550864</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="B300" t="n">
-        <v>104.2</v>
+        <v>106.4</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2.111324376199608</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="B301" t="n">
-        <v>104.5</v>
+        <v>106.5</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1.913875598086134</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="B302" t="n">
-        <v>105.2</v>
+        <v>107</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1.71102661596958</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="B303" t="n">
-        <v>106.5</v>
+        <v>108.1</v>
+      </c>
+      <c r="C303" t="n">
+        <v>1.502347417840366</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="B304" t="n">
-        <v>105.3</v>
+        <v>107.7</v>
+      </c>
+      <c r="C304" t="n">
+        <v>2.279202279202286</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="B305" t="n">
-        <v>105.1</v>
+        <v>107.8</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2.568981921979074</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="B306" t="n">
-        <v>104.9</v>
+        <v>107.8</v>
+      </c>
+      <c r="C306" t="n">
+        <v>2.764537654909427</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="B307" t="n">
-        <v>104.9</v>
+        <v>107.7</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2.669208770257381</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="B308" t="n">
-        <v>105.2</v>
+        <v>108.1</v>
+      </c>
+      <c r="C308" t="n">
+        <v>2.756653992395419</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="B309" t="n">
-        <v>105.9</v>
+        <v>108.9</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2.832861189801705</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="B310" t="n">
-        <v>106.6</v>
+        <v>109.8</v>
+      </c>
+      <c r="C310" t="n">
+        <v>3.001876172607876</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="B311" t="n">
-        <v>106.8</v>
+        <v>110.8</v>
+      </c>
+      <c r="C311" t="n">
+        <v>3.745318352059934</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="B312" t="n">
-        <v>106.4</v>
+        <v>111.2</v>
+      </c>
+      <c r="C312" t="n">
+        <v>4.51127819548871</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="B313" t="n">
-        <v>106.5</v>
+        <v>111.2</v>
+      </c>
+      <c r="C313" t="n">
+        <v>4.413145539906105</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="B314" t="n">
-        <v>107</v>
+        <v>112.8</v>
+      </c>
+      <c r="C314" t="n">
+        <v>5.42056074766355</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="B315" t="n">
-        <v>108.1</v>
+        <v>113.7</v>
+      </c>
+      <c r="C315" t="n">
+        <v>5.18038852913969</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="B316" t="n">
-        <v>107.7</v>
+        <v>112.3</v>
+      </c>
+      <c r="C316" t="n">
+        <v>4.271123491179196</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="B317" t="n">
-        <v>107.8</v>
+        <v>111.3</v>
+      </c>
+      <c r="C317" t="n">
+        <v>3.246753246753253</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="B318" t="n">
-        <v>107.8</v>
+        <v>110.4</v>
+      </c>
+      <c r="C318" t="n">
+        <v>2.411873840445278</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="B319" t="n">
-        <v>107.7</v>
+        <v>110.4</v>
+      </c>
+      <c r="C319" t="n">
+        <v>2.506963788300842</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="B320" t="n">
-        <v>108.1</v>
+        <v>110</v>
+      </c>
+      <c r="C320" t="n">
+        <v>1.757631822386685</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="B321" t="n">
-        <v>108.9</v>
+        <v>111.5</v>
+      </c>
+      <c r="C321" t="n">
+        <v>2.387511478420556</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="B322" t="n">
-        <v>109.8</v>
+        <v>111.7</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1.730418943533696</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="B323" t="n">
-        <v>110.8</v>
+        <v>111.4</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.5415162454873723</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>43770</v>
+        <v>44136</v>
       </c>
       <c r="B324" t="n">
-        <v>111.2</v>
+        <v>110.7</v>
+      </c>
+      <c r="C324" t="n">
+        <v>-0.4496402877697814</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="B325" t="n">
-        <v>111.2</v>
+        <v>111.5</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.2697841726618577</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="B326" t="n">
-        <v>112.8</v>
+        <v>112.55</v>
+      </c>
+      <c r="C326" t="n">
+        <v>-0.2216312056737557</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="B327" t="n">
-        <v>113.7</v>
+        <v>113.2193</v>
+      </c>
+      <c r="C327" t="n">
+        <v>-0.4227792436235722</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="B328" t="n">
-        <v>112.3</v>
+        <v>112.6615</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.3219056099732942</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="B329" t="n">
-        <v>111.3</v>
+        <v>112.3269</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.9226415094339524</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>43952</v>
+        <v>44317</v>
       </c>
       <c r="B330" t="n">
-        <v>110.4</v>
+        <v>112.2154</v>
+      </c>
+      <c r="C330" t="n">
+        <v>1.644384057971005</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>43983</v>
+        <v>44348</v>
       </c>
       <c r="B331" t="n">
-        <v>110.4</v>
+        <v>111.7692</v>
+      </c>
+      <c r="C331" t="n">
+        <v>1.240217391304332</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="B332" t="n">
-        <v>110</v>
+        <v>112.1038</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1.912545454545467</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44044</v>
+        <v>44409</v>
       </c>
       <c r="B333" t="n">
-        <v>111.5</v>
+        <v>112.2154</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.6416143497757876</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="B334" t="n">
-        <v>111.7</v>
+        <v>112.2154</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.4614145031333949</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44105</v>
+        <v>44470</v>
       </c>
       <c r="B335" t="n">
-        <v>111.4</v>
+        <v>112.9962</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1.432854578096943</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44136</v>
+        <v>44501</v>
       </c>
       <c r="B336" t="n">
-        <v>110.7</v>
+        <v>113.4424</v>
+      </c>
+      <c r="C336" t="n">
+        <v>2.477326106594413</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="B337" t="n">
-        <v>111.5</v>
+        <v>113.1077</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1.441883408071742</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="B338" t="n">
-        <v>112.55</v>
+        <v>113.6655</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.9911150599733354</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44228</v>
+        <v>44593</v>
       </c>
       <c r="B339" t="n">
-        <v>113.2193</v>
+        <v>114.3347</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.9851677231708766</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44256</v>
+        <v>44621</v>
       </c>
       <c r="B340" t="n">
-        <v>112.6615</v>
+        <v>114.3347</v>
+      </c>
+      <c r="C340" t="n">
+        <v>1.485156863702319</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="B341" t="n">
-        <v>112.3269</v>
+        <v>114.7809</v>
+      </c>
+      <c r="C341" t="n">
+        <v>2.184694850476609</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44317</v>
+        <v>44682</v>
       </c>
       <c r="B342" t="n">
-        <v>112.2154</v>
+        <v>114.5578</v>
+      </c>
+      <c r="C342" t="n">
+        <v>2.087414026951739</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44348</v>
+        <v>44713</v>
       </c>
       <c r="B343" t="n">
-        <v>111.7692</v>
+        <v>114.5578</v>
+      </c>
+      <c r="C343" t="n">
+        <v>2.494962834126047</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44378</v>
+        <v>44743</v>
       </c>
       <c r="B344" t="n">
-        <v>112.1038</v>
+        <v>115.1156</v>
+      </c>
+      <c r="C344" t="n">
+        <v>2.686617224393806</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44409</v>
+        <v>44774</v>
       </c>
       <c r="B345" t="n">
-        <v>112.2154</v>
+        <v>115.004</v>
+      </c>
+      <c r="C345" t="n">
+        <v>2.485042159988748</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="B346" t="n">
-        <v>112.2154</v>
+        <v>115.3387</v>
+      </c>
+      <c r="C346" t="n">
+        <v>2.783307816930658</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44470</v>
+        <v>44835</v>
       </c>
       <c r="B347" t="n">
-        <v>112.9962</v>
+        <v>115.4502</v>
+      </c>
+      <c r="C347" t="n">
+        <v>2.17175444837967</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44501</v>
+        <v>44866</v>
       </c>
       <c r="B348" t="n">
-        <v>113.4424</v>
+        <v>115.2271</v>
+      </c>
+      <c r="C348" t="n">
+        <v>1.573221299972483</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="B349" t="n">
-        <v>113.1077</v>
+        <v>115.1156</v>
+      </c>
+      <c r="C349" t="n">
+        <v>1.775210706256081</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="B350" t="n">
-        <v>113.6655</v>
+        <v>116.0079</v>
+      </c>
+      <c r="C350" t="n">
+        <v>2.060783615081108</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44593</v>
+        <v>44958</v>
       </c>
       <c r="B351" t="n">
-        <v>114.3347</v>
+        <v>115.4502</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.9756443144557148</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="B352" t="n">
-        <v>114.3347</v>
+        <v>115.1156</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.6829947513746992</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="B353" t="n">
-        <v>114.7809</v>
+        <v>114.8925</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.09722872010935468</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="B354" t="n">
-        <v>114.5578</v>
+        <v>114.7809</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.1947488516713891</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="B355" t="n">
         <v>114.5578</v>
       </c>
+      <c r="C355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44743</v>
+        <v>45108</v>
       </c>
       <c r="B356" t="n">
-        <v>115.1156</v>
+        <v>114.7809</v>
+      </c>
+      <c r="C356" t="n">
+        <v>-0.2907512100879472</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="B357" t="n">
-        <v>115.004</v>
+        <v>115.1156</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.09704010295292775</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="B358" t="n">
         <v>115.3387</v>
       </c>
+      <c r="C358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44835</v>
+        <v>45200</v>
       </c>
       <c r="B359" t="n">
-        <v>115.4502</v>
+        <v>115.2271</v>
+      </c>
+      <c r="C359" t="n">
+        <v>-0.1932434937314986</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44866</v>
+        <v>45231</v>
       </c>
       <c r="B360" t="n">
-        <v>115.2271</v>
+        <v>114.6694</v>
+      </c>
+      <c r="C360" t="n">
+        <v>-0.4840007255237699</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44896</v>
+        <v>45261</v>
       </c>
       <c r="B361" t="n">
-        <v>115.1156</v>
+        <v>114.7809</v>
+      </c>
+      <c r="C361" t="n">
+        <v>-0.2907512100879472</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44927</v>
+        <v>45292</v>
       </c>
       <c r="B362" t="n">
-        <v>116.0079</v>
+        <v>115.004</v>
+      </c>
+      <c r="C362" t="n">
+        <v>-0.8653720996587344</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44958</v>
+        <v>45323</v>
       </c>
       <c r="B363" t="n">
-        <v>115.4502</v>
+        <v>116.231</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.6763089193435823</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44986</v>
+        <v>45352</v>
       </c>
       <c r="B364" t="n">
-        <v>115.1156</v>
+        <v>115.2271</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.09685915722976723</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45017</v>
+        <v>45383</v>
       </c>
       <c r="B365" t="n">
-        <v>114.8925</v>
+        <v>115.1156</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.1941815175054984</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45047</v>
+        <v>45413</v>
       </c>
       <c r="B366" t="n">
-        <v>114.7809</v>
+        <v>115.1156</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.2915990378190125</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="B367" t="n">
-        <v>114.5578</v>
+        <v>114.7809</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.1947488516713891</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45108</v>
+        <v>45474</v>
       </c>
       <c r="B368" t="n">
-        <v>114.7809</v>
+        <v>115.3387</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.4859693555286704</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45139</v>
+        <v>45505</v>
       </c>
       <c r="B369" t="n">
-        <v>115.1156</v>
+        <v>115.7848</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.5813286817772712</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45170</v>
+        <v>45536</v>
       </c>
       <c r="B370" t="n">
-        <v>115.3387</v>
+        <v>115.7848</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.3867739102313417</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45200</v>
+        <v>45566</v>
       </c>
       <c r="B371" t="n">
-        <v>115.2271</v>
+        <v>115.5617</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.2903830782862826</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45231</v>
+        <v>45597</v>
       </c>
       <c r="B372" t="n">
-        <v>114.6694</v>
+        <v>114.8925</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.1945593157372416</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45261</v>
+        <v>45627</v>
       </c>
       <c r="B373" t="n">
-        <v>114.7809</v>
+        <v>114.8925</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.09722872010935468</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45292</v>
+        <v>45658</v>
       </c>
       <c r="B374" t="n">
-        <v>115.004</v>
+        <v>115.5617</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.4849396542728979</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45323</v>
+        <v>45689</v>
       </c>
       <c r="B375" t="n">
-        <v>116.231</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B376" t="n">
-        <v>115.2271</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="B377" t="n">
-        <v>115.1156</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
-        <v>45413</v>
-      </c>
-      <c r="B378" t="n">
-        <v>115.1156</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B379" t="n">
-        <v>114.7809</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="B380" t="n">
         <v>115.3387</v>
       </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
-        <v>45505</v>
-      </c>
-      <c r="B381" t="n">
-        <v>115.7848</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
-        <v>45536</v>
-      </c>
-      <c r="B382" t="n">
-        <v>115.7848</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B383" t="n">
-        <v>115.5617</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B384" t="n">
-        <v>114.8925</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B385" t="n">
-        <v>114.8925</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B386" t="n">
-        <v>115.5617</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
-        <v>45689</v>
-      </c>
-      <c r="B387" t="n">
-        <v>115.3387</v>
+      <c r="C375" t="n">
+        <v>-0.7676953652639984</v>
       </c>
     </row>
   </sheetData>
